--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Mgr\1 semestr\Zaawansowane programowanie\Projekt\PDP App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4CBC0E-0EE6-496B-AF97-988639AD5139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014464D-F4EC-4AEA-982F-D6BD92C12C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{134B9FED-D28E-46E9-89FE-F1A985593F2E}"/>
   </bookViews>
@@ -793,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B263505-5328-4F8C-A1D0-B6A4CF386B5A}">
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:L341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+      <selection activeCell="H345" sqref="H345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,8 +5451,6034 @@
         <v>504</v>
       </c>
     </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+      <c r="G148">
+        <v>20</v>
+      </c>
+      <c r="H148">
+        <v>20</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>500</v>
+      </c>
+      <c r="K148">
+        <v>0.95</v>
+      </c>
+      <c r="L148">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>20</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
+        <v>20</v>
+      </c>
+      <c r="H149">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>500</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>15</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+      <c r="G150">
+        <v>20</v>
+      </c>
+      <c r="H150">
+        <v>20</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>500</v>
+      </c>
+      <c r="K150">
+        <v>0.76</v>
+      </c>
+      <c r="L150">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
+        <v>20</v>
+      </c>
+      <c r="H151">
+        <v>20</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>500</v>
+      </c>
+      <c r="K151">
+        <v>0.67</v>
+      </c>
+      <c r="L151">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>20</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>15</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <v>20</v>
+      </c>
+      <c r="H152">
+        <v>20</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>500</v>
+      </c>
+      <c r="K152">
+        <v>0.71</v>
+      </c>
+      <c r="L152">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>20</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>15</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <v>20</v>
+      </c>
+      <c r="H154">
+        <v>20</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>500</v>
+      </c>
+      <c r="K154">
+        <v>0.62</v>
+      </c>
+      <c r="L154">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>20</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
+      </c>
+      <c r="G155">
+        <v>20</v>
+      </c>
+      <c r="H155">
+        <v>20</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>500</v>
+      </c>
+      <c r="K155">
+        <v>0.76</v>
+      </c>
+      <c r="L155">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>20</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>15</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>20</v>
+      </c>
+      <c r="H156">
+        <v>20</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>500</v>
+      </c>
+      <c r="K156">
+        <v>0.71</v>
+      </c>
+      <c r="L156">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>20</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>15</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+      <c r="G157">
+        <v>20</v>
+      </c>
+      <c r="H157">
+        <v>20</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>500</v>
+      </c>
+      <c r="K157">
+        <v>0.67</v>
+      </c>
+      <c r="L157">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>20</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>15</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>10</v>
+      </c>
+      <c r="G158">
+        <v>20</v>
+      </c>
+      <c r="H158">
+        <v>20</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>500</v>
+      </c>
+      <c r="K158">
+        <v>0.67</v>
+      </c>
+      <c r="L158">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>20</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>15</v>
+      </c>
+      <c r="D160" s="3">
+        <v>4</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>20</v>
+      </c>
+      <c r="H160">
+        <v>20</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>500</v>
+      </c>
+      <c r="K160">
+        <v>0.62</v>
+      </c>
+      <c r="L160">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>20</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+      <c r="D161" s="3">
+        <v>4</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161">
+        <v>20</v>
+      </c>
+      <c r="H161">
+        <v>20</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>500</v>
+      </c>
+      <c r="K161">
+        <v>0.67</v>
+      </c>
+      <c r="L161">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>20</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>15</v>
+      </c>
+      <c r="D162" s="3">
+        <v>4</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+      <c r="G162">
+        <v>20</v>
+      </c>
+      <c r="H162">
+        <v>20</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>500</v>
+      </c>
+      <c r="K162">
+        <v>0.62</v>
+      </c>
+      <c r="L162">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>20</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>15</v>
+      </c>
+      <c r="D163" s="3">
+        <v>4</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+      <c r="G163">
+        <v>20</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>500</v>
+      </c>
+      <c r="K163">
+        <v>0.67</v>
+      </c>
+      <c r="L163">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>20</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>15</v>
+      </c>
+      <c r="D164" s="3">
+        <v>4</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <v>20</v>
+      </c>
+      <c r="H164">
+        <v>20</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>500</v>
+      </c>
+      <c r="K164">
+        <v>0.71</v>
+      </c>
+      <c r="L164">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>20</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>15</v>
+      </c>
+      <c r="D166" s="3">
+        <v>6</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>10</v>
+      </c>
+      <c r="G166">
+        <v>20</v>
+      </c>
+      <c r="H166">
+        <v>20</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>500</v>
+      </c>
+      <c r="K166">
+        <v>0.71</v>
+      </c>
+      <c r="L166">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>20</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>15</v>
+      </c>
+      <c r="D167" s="3">
+        <v>6</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+      <c r="G167">
+        <v>20</v>
+      </c>
+      <c r="H167">
+        <v>20</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>500</v>
+      </c>
+      <c r="K167">
+        <v>0.67</v>
+      </c>
+      <c r="L167">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>20</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>15</v>
+      </c>
+      <c r="D168" s="3">
+        <v>6</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>10</v>
+      </c>
+      <c r="G168">
+        <v>20</v>
+      </c>
+      <c r="H168">
+        <v>20</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>500</v>
+      </c>
+      <c r="K168">
+        <v>0.67</v>
+      </c>
+      <c r="L168">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>20</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>15</v>
+      </c>
+      <c r="D169" s="3">
+        <v>6</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>10</v>
+      </c>
+      <c r="G169">
+        <v>20</v>
+      </c>
+      <c r="H169">
+        <v>20</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>500</v>
+      </c>
+      <c r="K169">
+        <v>0.62</v>
+      </c>
+      <c r="L169">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>20</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+      <c r="D170" s="3">
+        <v>6</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <v>20</v>
+      </c>
+      <c r="H170">
+        <v>20</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>500</v>
+      </c>
+      <c r="K170">
+        <v>0.67</v>
+      </c>
+      <c r="L170">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>20</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+      <c r="D172" s="3">
+        <v>8</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+      <c r="G172">
+        <v>20</v>
+      </c>
+      <c r="H172">
+        <v>20</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>500</v>
+      </c>
+      <c r="K172">
+        <v>0.62</v>
+      </c>
+      <c r="L172">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>20</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>15</v>
+      </c>
+      <c r="D173" s="3">
+        <v>8</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>10</v>
+      </c>
+      <c r="G173">
+        <v>20</v>
+      </c>
+      <c r="H173">
+        <v>20</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>500</v>
+      </c>
+      <c r="K173">
+        <v>0.62</v>
+      </c>
+      <c r="L173">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>20</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>15</v>
+      </c>
+      <c r="D174" s="3">
+        <v>8</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>10</v>
+      </c>
+      <c r="G174">
+        <v>20</v>
+      </c>
+      <c r="H174">
+        <v>20</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>500</v>
+      </c>
+      <c r="K174">
+        <v>0.67</v>
+      </c>
+      <c r="L174">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>20</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>15</v>
+      </c>
+      <c r="D175" s="3">
+        <v>8</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>10</v>
+      </c>
+      <c r="G175">
+        <v>20</v>
+      </c>
+      <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>500</v>
+      </c>
+      <c r="K175">
+        <v>0.67</v>
+      </c>
+      <c r="L175">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>15</v>
+      </c>
+      <c r="D176" s="3">
+        <v>8</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>10</v>
+      </c>
+      <c r="G176">
+        <v>20</v>
+      </c>
+      <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>500</v>
+      </c>
+      <c r="K176">
+        <v>0.62</v>
+      </c>
+      <c r="L176">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>20</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+      <c r="G178">
+        <v>20</v>
+      </c>
+      <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>500</v>
+      </c>
+      <c r="K178">
+        <v>0.95</v>
+      </c>
+      <c r="L178">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>20</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>10</v>
+      </c>
+      <c r="G179">
+        <v>20</v>
+      </c>
+      <c r="H179">
+        <v>20</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>500</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>20</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>15</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>10</v>
+      </c>
+      <c r="G180">
+        <v>20</v>
+      </c>
+      <c r="H180">
+        <v>20</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>500</v>
+      </c>
+      <c r="K180">
+        <v>0.76</v>
+      </c>
+      <c r="L180">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>20</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+      <c r="G181">
+        <v>20</v>
+      </c>
+      <c r="H181">
+        <v>20</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>500</v>
+      </c>
+      <c r="K181">
+        <v>0.67</v>
+      </c>
+      <c r="L181">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>20</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>15</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+      <c r="G182">
+        <v>20</v>
+      </c>
+      <c r="H182">
+        <v>20</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>500</v>
+      </c>
+      <c r="K182">
+        <v>0.71</v>
+      </c>
+      <c r="L182">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>20</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>15</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0</v>
+      </c>
+      <c r="E184" s="3">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>10</v>
+      </c>
+      <c r="G184">
+        <v>20</v>
+      </c>
+      <c r="H184">
+        <v>20</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>500</v>
+      </c>
+      <c r="K184">
+        <v>0.71</v>
+      </c>
+      <c r="L184">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>20</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>15</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0</v>
+      </c>
+      <c r="E185" s="3">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>10</v>
+      </c>
+      <c r="G185">
+        <v>20</v>
+      </c>
+      <c r="H185">
+        <v>20</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>500</v>
+      </c>
+      <c r="K185">
+        <v>0.67</v>
+      </c>
+      <c r="L185">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>20</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>15</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="E186" s="3">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>10</v>
+      </c>
+      <c r="G186">
+        <v>20</v>
+      </c>
+      <c r="H186">
+        <v>20</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>500</v>
+      </c>
+      <c r="K186">
+        <v>0.71</v>
+      </c>
+      <c r="L186">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>20</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187">
+        <v>20</v>
+      </c>
+      <c r="H187">
+        <v>20</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>500</v>
+      </c>
+      <c r="K187">
+        <v>0.61</v>
+      </c>
+      <c r="L187">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>20</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>15</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188">
+        <v>20</v>
+      </c>
+      <c r="H188">
+        <v>20</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>500</v>
+      </c>
+      <c r="K188">
+        <v>0.67</v>
+      </c>
+      <c r="L188">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>20</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E191" s="3">
+        <v>4</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191">
+        <v>20</v>
+      </c>
+      <c r="H191">
+        <v>20</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>500</v>
+      </c>
+      <c r="K191">
+        <v>0.67</v>
+      </c>
+      <c r="L191">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>20</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0</v>
+      </c>
+      <c r="E192" s="3">
+        <v>4</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192">
+        <v>20</v>
+      </c>
+      <c r="H192">
+        <v>20</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>500</v>
+      </c>
+      <c r="K192">
+        <v>0.8</v>
+      </c>
+      <c r="L192">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>20</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0</v>
+      </c>
+      <c r="E193" s="3">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193">
+        <v>20</v>
+      </c>
+      <c r="H193">
+        <v>20</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>500</v>
+      </c>
+      <c r="K193">
+        <v>0.71</v>
+      </c>
+      <c r="L193">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>20</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0</v>
+      </c>
+      <c r="E194" s="3">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>10</v>
+      </c>
+      <c r="G194">
+        <v>20</v>
+      </c>
+      <c r="H194">
+        <v>20</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>500</v>
+      </c>
+      <c r="K194">
+        <v>0.67</v>
+      </c>
+      <c r="L194">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>20</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0</v>
+      </c>
+      <c r="E195" s="3">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <v>20</v>
+      </c>
+      <c r="H195">
+        <v>20</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>500</v>
+      </c>
+      <c r="K195">
+        <v>0.67</v>
+      </c>
+      <c r="L195">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>20</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>15</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>10</v>
+      </c>
+      <c r="G198">
+        <v>20</v>
+      </c>
+      <c r="H198">
+        <v>20</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>500</v>
+      </c>
+      <c r="K198">
+        <v>0.71</v>
+      </c>
+      <c r="L198">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>20</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>15</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>6</v>
+      </c>
+      <c r="F199">
+        <v>10</v>
+      </c>
+      <c r="G199">
+        <v>20</v>
+      </c>
+      <c r="H199">
+        <v>20</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>500</v>
+      </c>
+      <c r="K199">
+        <v>0.62</v>
+      </c>
+      <c r="L199">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>20</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>15</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>6</v>
+      </c>
+      <c r="F200">
+        <v>10</v>
+      </c>
+      <c r="G200">
+        <v>20</v>
+      </c>
+      <c r="H200">
+        <v>20</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>500</v>
+      </c>
+      <c r="K200">
+        <v>0.67</v>
+      </c>
+      <c r="L200">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>20</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>15</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201" s="3">
+        <v>6</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+      <c r="G201">
+        <v>20</v>
+      </c>
+      <c r="H201">
+        <v>20</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>500</v>
+      </c>
+      <c r="K201">
+        <v>0.62</v>
+      </c>
+      <c r="L201">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>20</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202" s="3">
+        <v>6</v>
+      </c>
+      <c r="F202">
+        <v>10</v>
+      </c>
+      <c r="G202">
+        <v>20</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>500</v>
+      </c>
+      <c r="K202">
+        <v>0.77</v>
+      </c>
+      <c r="L202">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>20</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>15</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+      <c r="E205" s="3">
+        <v>8</v>
+      </c>
+      <c r="F205">
+        <v>10</v>
+      </c>
+      <c r="G205">
+        <v>20</v>
+      </c>
+      <c r="H205">
+        <v>20</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>500</v>
+      </c>
+      <c r="K205">
+        <v>0.67</v>
+      </c>
+      <c r="L205">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>20</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>15</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>8</v>
+      </c>
+      <c r="F206">
+        <v>10</v>
+      </c>
+      <c r="G206">
+        <v>20</v>
+      </c>
+      <c r="H206">
+        <v>20</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>500</v>
+      </c>
+      <c r="K206">
+        <v>0.67</v>
+      </c>
+      <c r="L206">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>20</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>15</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>8</v>
+      </c>
+      <c r="F207">
+        <v>10</v>
+      </c>
+      <c r="G207">
+        <v>20</v>
+      </c>
+      <c r="H207">
+        <v>20</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>500</v>
+      </c>
+      <c r="K207">
+        <v>0.62</v>
+      </c>
+      <c r="L207">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>20</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <v>10</v>
+      </c>
+      <c r="G208">
+        <v>20</v>
+      </c>
+      <c r="H208">
+        <v>20</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>500</v>
+      </c>
+      <c r="K208">
+        <v>0.67</v>
+      </c>
+      <c r="L208">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>20</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>15</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>8</v>
+      </c>
+      <c r="F209">
+        <v>10</v>
+      </c>
+      <c r="G209">
+        <v>20</v>
+      </c>
+      <c r="H209">
+        <v>20</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>500</v>
+      </c>
+      <c r="K209">
+        <v>0.72</v>
+      </c>
+      <c r="L209">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>20</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>15</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" s="3">
+        <v>3</v>
+      </c>
+      <c r="G212">
+        <v>20</v>
+      </c>
+      <c r="H212">
+        <v>20</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>500</v>
+      </c>
+      <c r="K212">
+        <v>0.62</v>
+      </c>
+      <c r="L212">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>20</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>15</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" s="3">
+        <v>3</v>
+      </c>
+      <c r="G213">
+        <v>20</v>
+      </c>
+      <c r="H213">
+        <v>20</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>500</v>
+      </c>
+      <c r="K213">
+        <v>0.9</v>
+      </c>
+      <c r="L213">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>20</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>15</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" s="3">
+        <v>3</v>
+      </c>
+      <c r="G214">
+        <v>20</v>
+      </c>
+      <c r="H214">
+        <v>20</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>500</v>
+      </c>
+      <c r="K214">
+        <v>0.67</v>
+      </c>
+      <c r="L214">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>20</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>15</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" s="3">
+        <v>3</v>
+      </c>
+      <c r="G215">
+        <v>20</v>
+      </c>
+      <c r="H215">
+        <v>20</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>500</v>
+      </c>
+      <c r="K215">
+        <v>0.71</v>
+      </c>
+      <c r="L215">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>20</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>15</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>3</v>
+      </c>
+      <c r="G216">
+        <v>20</v>
+      </c>
+      <c r="H216">
+        <v>20</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>500</v>
+      </c>
+      <c r="K216">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L216">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>20</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>15</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" s="3">
+        <v>3</v>
+      </c>
+      <c r="G217">
+        <v>20</v>
+      </c>
+      <c r="H217">
+        <v>20</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>500</v>
+      </c>
+      <c r="K217">
+        <v>0.67</v>
+      </c>
+      <c r="L217">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>20</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>15</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3">
+        <v>3</v>
+      </c>
+      <c r="G218">
+        <v>20</v>
+      </c>
+      <c r="H218">
+        <v>20</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>500</v>
+      </c>
+      <c r="K218">
+        <v>0.67</v>
+      </c>
+      <c r="L218">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>20</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>15</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" s="3">
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <v>20</v>
+      </c>
+      <c r="H219">
+        <v>20</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>500</v>
+      </c>
+      <c r="K219">
+        <v>0.62</v>
+      </c>
+      <c r="L219">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>20</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>15</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" s="3">
+        <v>3</v>
+      </c>
+      <c r="G220">
+        <v>20</v>
+      </c>
+      <c r="H220">
+        <v>20</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>500</v>
+      </c>
+      <c r="K220">
+        <v>0.71</v>
+      </c>
+      <c r="L220">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>20</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>15</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" s="3">
+        <v>3</v>
+      </c>
+      <c r="G221">
+        <v>20</v>
+      </c>
+      <c r="H221">
+        <v>20</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>500</v>
+      </c>
+      <c r="K221">
+        <v>0.67</v>
+      </c>
+      <c r="L221">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>20</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>15</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" s="3">
+        <v>6</v>
+      </c>
+      <c r="G224">
+        <v>20</v>
+      </c>
+      <c r="H224">
+        <v>20</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>500</v>
+      </c>
+      <c r="K224">
+        <v>0.71</v>
+      </c>
+      <c r="L224">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>20</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>15</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" s="3">
+        <v>6</v>
+      </c>
+      <c r="G225">
+        <v>20</v>
+      </c>
+      <c r="H225">
+        <v>20</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>500</v>
+      </c>
+      <c r="K225">
+        <v>0.9</v>
+      </c>
+      <c r="L225">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>20</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>15</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" s="3">
+        <v>6</v>
+      </c>
+      <c r="G226">
+        <v>20</v>
+      </c>
+      <c r="H226">
+        <v>20</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>500</v>
+      </c>
+      <c r="K226">
+        <v>0.71</v>
+      </c>
+      <c r="L226">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>20</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>15</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>6</v>
+      </c>
+      <c r="G227">
+        <v>20</v>
+      </c>
+      <c r="H227">
+        <v>20</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>500</v>
+      </c>
+      <c r="K227">
+        <v>0.76</v>
+      </c>
+      <c r="L227">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>20</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>15</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" s="3">
+        <v>6</v>
+      </c>
+      <c r="G228">
+        <v>20</v>
+      </c>
+      <c r="H228">
+        <v>20</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>500</v>
+      </c>
+      <c r="K228">
+        <v>0.62</v>
+      </c>
+      <c r="L228">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>20</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>15</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" s="3">
+        <v>6</v>
+      </c>
+      <c r="G229">
+        <v>20</v>
+      </c>
+      <c r="H229">
+        <v>20</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>500</v>
+      </c>
+      <c r="K229">
+        <v>0.9</v>
+      </c>
+      <c r="L229">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>20</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>15</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" s="3">
+        <v>6</v>
+      </c>
+      <c r="G230">
+        <v>20</v>
+      </c>
+      <c r="H230">
+        <v>20</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>500</v>
+      </c>
+      <c r="K230">
+        <v>0.62</v>
+      </c>
+      <c r="L230">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>20</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>15</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" s="3">
+        <v>6</v>
+      </c>
+      <c r="G231">
+        <v>20</v>
+      </c>
+      <c r="H231">
+        <v>20</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>500</v>
+      </c>
+      <c r="K231">
+        <v>0.67</v>
+      </c>
+      <c r="L231">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>20</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>15</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" s="3">
+        <v>6</v>
+      </c>
+      <c r="G232">
+        <v>20</v>
+      </c>
+      <c r="H232">
+        <v>20</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>500</v>
+      </c>
+      <c r="K232">
+        <v>0.76</v>
+      </c>
+      <c r="L232">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>20</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>15</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" s="3">
+        <v>6</v>
+      </c>
+      <c r="G233">
+        <v>20</v>
+      </c>
+      <c r="H233">
+        <v>20</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>500</v>
+      </c>
+      <c r="K233">
+        <v>0.67</v>
+      </c>
+      <c r="L233">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>20</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>15</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" s="3">
+        <v>9</v>
+      </c>
+      <c r="G236">
+        <v>20</v>
+      </c>
+      <c r="H236">
+        <v>20</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>500</v>
+      </c>
+      <c r="K236">
+        <v>0.67</v>
+      </c>
+      <c r="L236">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>20</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>15</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" s="3">
+        <v>9</v>
+      </c>
+      <c r="G237">
+        <v>20</v>
+      </c>
+      <c r="H237">
+        <v>20</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>500</v>
+      </c>
+      <c r="K237">
+        <v>0.62</v>
+      </c>
+      <c r="L237">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>20</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>15</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" s="3">
+        <v>9</v>
+      </c>
+      <c r="G238">
+        <v>20</v>
+      </c>
+      <c r="H238">
+        <v>20</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>500</v>
+      </c>
+      <c r="K238">
+        <v>0.71</v>
+      </c>
+      <c r="L238">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>20</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>15</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" s="3">
+        <v>9</v>
+      </c>
+      <c r="G239">
+        <v>20</v>
+      </c>
+      <c r="H239">
+        <v>20</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>500</v>
+      </c>
+      <c r="K239">
+        <v>0.76</v>
+      </c>
+      <c r="L239">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>20</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>15</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" s="3">
+        <v>9</v>
+      </c>
+      <c r="G240">
+        <v>20</v>
+      </c>
+      <c r="H240">
+        <v>20</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>500</v>
+      </c>
+      <c r="K240">
+        <v>0.67</v>
+      </c>
+      <c r="L240">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>20</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>15</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" s="3">
+        <v>9</v>
+      </c>
+      <c r="G241">
+        <v>20</v>
+      </c>
+      <c r="H241">
+        <v>20</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>500</v>
+      </c>
+      <c r="K241">
+        <v>0.67</v>
+      </c>
+      <c r="L241">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>20</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>15</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" s="3">
+        <v>9</v>
+      </c>
+      <c r="G242">
+        <v>20</v>
+      </c>
+      <c r="H242">
+        <v>20</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>500</v>
+      </c>
+      <c r="K242">
+        <v>0.71</v>
+      </c>
+      <c r="L242">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>20</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>15</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" s="3">
+        <v>9</v>
+      </c>
+      <c r="G243">
+        <v>20</v>
+      </c>
+      <c r="H243">
+        <v>20</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>500</v>
+      </c>
+      <c r="K243">
+        <v>0.71</v>
+      </c>
+      <c r="L243">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>20</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>15</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" s="3">
+        <v>9</v>
+      </c>
+      <c r="G244">
+        <v>20</v>
+      </c>
+      <c r="H244">
+        <v>20</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>500</v>
+      </c>
+      <c r="K244">
+        <v>0.67</v>
+      </c>
+      <c r="L244">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>20</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>15</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" s="3">
+        <v>9</v>
+      </c>
+      <c r="G245">
+        <v>20</v>
+      </c>
+      <c r="H245">
+        <v>20</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>500</v>
+      </c>
+      <c r="K245">
+        <v>0.76</v>
+      </c>
+      <c r="L245">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>20</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>15</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>12</v>
+      </c>
+      <c r="G248">
+        <v>20</v>
+      </c>
+      <c r="H248">
+        <v>20</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>500</v>
+      </c>
+      <c r="K248">
+        <v>0.71</v>
+      </c>
+      <c r="L248">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>20</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>15</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" s="3">
+        <v>12</v>
+      </c>
+      <c r="G249">
+        <v>20</v>
+      </c>
+      <c r="H249">
+        <v>20</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>500</v>
+      </c>
+      <c r="K249">
+        <v>0.71</v>
+      </c>
+      <c r="L249">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>20</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>15</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3">
+        <v>12</v>
+      </c>
+      <c r="G250">
+        <v>20</v>
+      </c>
+      <c r="H250">
+        <v>20</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>500</v>
+      </c>
+      <c r="K250">
+        <v>0.71</v>
+      </c>
+      <c r="L250">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>20</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>15</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" s="3">
+        <v>12</v>
+      </c>
+      <c r="G251">
+        <v>20</v>
+      </c>
+      <c r="H251">
+        <v>20</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>500</v>
+      </c>
+      <c r="K251">
+        <v>0.67</v>
+      </c>
+      <c r="L251">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>20</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>15</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3">
+        <v>12</v>
+      </c>
+      <c r="G252">
+        <v>20</v>
+      </c>
+      <c r="H252">
+        <v>20</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>500</v>
+      </c>
+      <c r="K252">
+        <v>0.62</v>
+      </c>
+      <c r="L252">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>20</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>15</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" s="3">
+        <v>12</v>
+      </c>
+      <c r="G253">
+        <v>20</v>
+      </c>
+      <c r="H253">
+        <v>20</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>500</v>
+      </c>
+      <c r="K253">
+        <v>0.8</v>
+      </c>
+      <c r="L253">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>20</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>15</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" s="3">
+        <v>12</v>
+      </c>
+      <c r="G254">
+        <v>20</v>
+      </c>
+      <c r="H254">
+        <v>20</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>500</v>
+      </c>
+      <c r="K254">
+        <v>0.71</v>
+      </c>
+      <c r="L254">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>20</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>15</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255" s="3">
+        <v>12</v>
+      </c>
+      <c r="G255">
+        <v>20</v>
+      </c>
+      <c r="H255">
+        <v>20</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>500</v>
+      </c>
+      <c r="K255">
+        <v>0.71</v>
+      </c>
+      <c r="L255">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>20</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>15</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" s="3">
+        <v>12</v>
+      </c>
+      <c r="G256">
+        <v>20</v>
+      </c>
+      <c r="H256">
+        <v>20</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>500</v>
+      </c>
+      <c r="K256">
+        <v>0.67</v>
+      </c>
+      <c r="L256">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>20</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>15</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" s="3">
+        <v>12</v>
+      </c>
+      <c r="G257">
+        <v>20</v>
+      </c>
+      <c r="H257">
+        <v>20</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>500</v>
+      </c>
+      <c r="K257">
+        <v>0.76</v>
+      </c>
+      <c r="L257">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>20</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>15</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" s="4">
+        <v>6</v>
+      </c>
+      <c r="G260" s="3">
+        <v>5</v>
+      </c>
+      <c r="H260">
+        <v>20</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>500</v>
+      </c>
+      <c r="K260">
+        <v>0.76</v>
+      </c>
+      <c r="L260">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>20</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>15</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" s="4">
+        <v>6</v>
+      </c>
+      <c r="G261" s="3">
+        <v>5</v>
+      </c>
+      <c r="H261">
+        <v>20</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>500</v>
+      </c>
+      <c r="K261">
+        <v>0.71</v>
+      </c>
+      <c r="L261">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>20</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>15</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" s="4">
+        <v>6</v>
+      </c>
+      <c r="G262" s="3">
+        <v>5</v>
+      </c>
+      <c r="H262">
+        <v>20</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>500</v>
+      </c>
+      <c r="K262">
+        <v>0.71</v>
+      </c>
+      <c r="L262">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>20</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>15</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" s="4">
+        <v>6</v>
+      </c>
+      <c r="G263" s="3">
+        <v>5</v>
+      </c>
+      <c r="H263">
+        <v>20</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>500</v>
+      </c>
+      <c r="K263">
+        <v>0.67</v>
+      </c>
+      <c r="L263">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>20</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>15</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" s="4">
+        <v>6</v>
+      </c>
+      <c r="G264" s="3">
+        <v>5</v>
+      </c>
+      <c r="H264">
+        <v>20</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>500</v>
+      </c>
+      <c r="K264">
+        <v>0.71</v>
+      </c>
+      <c r="L264">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>20</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>15</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" s="4">
+        <v>6</v>
+      </c>
+      <c r="G265" s="3">
+        <v>5</v>
+      </c>
+      <c r="H265">
+        <v>20</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>500</v>
+      </c>
+      <c r="K265">
+        <v>0.9</v>
+      </c>
+      <c r="L265">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>20</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>15</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" s="4">
+        <v>6</v>
+      </c>
+      <c r="G266" s="3">
+        <v>5</v>
+      </c>
+      <c r="H266">
+        <v>20</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>500</v>
+      </c>
+      <c r="K266">
+        <v>0.76</v>
+      </c>
+      <c r="L266">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>20</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>15</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" s="4">
+        <v>6</v>
+      </c>
+      <c r="G267" s="3">
+        <v>5</v>
+      </c>
+      <c r="H267">
+        <v>20</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>500</v>
+      </c>
+      <c r="K267">
+        <v>0.86</v>
+      </c>
+      <c r="L267">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>20</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" s="4">
+        <v>6</v>
+      </c>
+      <c r="G268" s="3">
+        <v>5</v>
+      </c>
+      <c r="H268">
+        <v>20</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>500</v>
+      </c>
+      <c r="K268">
+        <v>0.8</v>
+      </c>
+      <c r="L268">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>20</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>15</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" s="4">
+        <v>6</v>
+      </c>
+      <c r="G269" s="3">
+        <v>5</v>
+      </c>
+      <c r="H269">
+        <v>20</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>500</v>
+      </c>
+      <c r="K269">
+        <v>0.71</v>
+      </c>
+      <c r="L269">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>20</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>15</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" s="4">
+        <v>6</v>
+      </c>
+      <c r="G272" s="3">
+        <v>15</v>
+      </c>
+      <c r="H272">
+        <v>20</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>500</v>
+      </c>
+      <c r="K272">
+        <v>0.67</v>
+      </c>
+      <c r="L272">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>20</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>15</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273" s="4">
+        <v>6</v>
+      </c>
+      <c r="G273" s="3">
+        <v>15</v>
+      </c>
+      <c r="H273">
+        <v>20</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>500</v>
+      </c>
+      <c r="K273">
+        <v>0.71</v>
+      </c>
+      <c r="L273">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>20</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>15</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" s="4">
+        <v>6</v>
+      </c>
+      <c r="G274" s="3">
+        <v>15</v>
+      </c>
+      <c r="H274">
+        <v>20</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>500</v>
+      </c>
+      <c r="K274">
+        <v>0.67</v>
+      </c>
+      <c r="L274">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>20</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>15</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275" s="4">
+        <v>6</v>
+      </c>
+      <c r="G275" s="3">
+        <v>15</v>
+      </c>
+      <c r="H275">
+        <v>20</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>500</v>
+      </c>
+      <c r="K275">
+        <v>0.67</v>
+      </c>
+      <c r="L275">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>20</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>15</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276" s="4">
+        <v>6</v>
+      </c>
+      <c r="G276" s="3">
+        <v>15</v>
+      </c>
+      <c r="H276">
+        <v>20</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>500</v>
+      </c>
+      <c r="K276">
+        <v>0.67</v>
+      </c>
+      <c r="L276">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>20</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>15</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277" s="4">
+        <v>6</v>
+      </c>
+      <c r="G277" s="3">
+        <v>15</v>
+      </c>
+      <c r="H277">
+        <v>20</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>500</v>
+      </c>
+      <c r="K277">
+        <v>0.67</v>
+      </c>
+      <c r="L277">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>20</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>15</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" s="4">
+        <v>6</v>
+      </c>
+      <c r="G278" s="3">
+        <v>15</v>
+      </c>
+      <c r="H278">
+        <v>20</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>500</v>
+      </c>
+      <c r="K278">
+        <v>0.67</v>
+      </c>
+      <c r="L278">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>20</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>15</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279" s="4">
+        <v>6</v>
+      </c>
+      <c r="G279" s="3">
+        <v>15</v>
+      </c>
+      <c r="H279">
+        <v>20</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>500</v>
+      </c>
+      <c r="K279">
+        <v>0.71</v>
+      </c>
+      <c r="L279">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>20</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>15</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" s="4">
+        <v>6</v>
+      </c>
+      <c r="G280" s="3">
+        <v>15</v>
+      </c>
+      <c r="H280">
+        <v>20</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>500</v>
+      </c>
+      <c r="K280">
+        <v>0.67</v>
+      </c>
+      <c r="L280">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>20</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>15</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" s="4">
+        <v>6</v>
+      </c>
+      <c r="G281" s="3">
+        <v>15</v>
+      </c>
+      <c r="H281">
+        <v>20</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>500</v>
+      </c>
+      <c r="K281">
+        <v>0.67</v>
+      </c>
+      <c r="L281">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>20</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>15</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" s="4">
+        <v>6</v>
+      </c>
+      <c r="G284" s="3">
+        <v>25</v>
+      </c>
+      <c r="H284">
+        <v>20</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>500</v>
+      </c>
+      <c r="K284">
+        <v>0.62</v>
+      </c>
+      <c r="L284">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>20</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>15</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" s="4">
+        <v>6</v>
+      </c>
+      <c r="G285" s="3">
+        <v>25</v>
+      </c>
+      <c r="H285">
+        <v>20</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>500</v>
+      </c>
+      <c r="K285">
+        <v>0.67</v>
+      </c>
+      <c r="L285">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>20</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>15</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" s="4">
+        <v>6</v>
+      </c>
+      <c r="G286" s="3">
+        <v>25</v>
+      </c>
+      <c r="H286">
+        <v>20</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>500</v>
+      </c>
+      <c r="K286">
+        <v>0.62</v>
+      </c>
+      <c r="L286">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>20</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>15</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" s="4">
+        <v>6</v>
+      </c>
+      <c r="G287" s="3">
+        <v>25</v>
+      </c>
+      <c r="H287">
+        <v>20</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>500</v>
+      </c>
+      <c r="K287">
+        <v>0.71</v>
+      </c>
+      <c r="L287">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>20</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>15</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" s="4">
+        <v>6</v>
+      </c>
+      <c r="G288" s="3">
+        <v>25</v>
+      </c>
+      <c r="H288">
+        <v>20</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>500</v>
+      </c>
+      <c r="K288">
+        <v>0.67</v>
+      </c>
+      <c r="L288">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>20</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>15</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" s="4">
+        <v>6</v>
+      </c>
+      <c r="G289" s="3">
+        <v>25</v>
+      </c>
+      <c r="H289">
+        <v>20</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>500</v>
+      </c>
+      <c r="K289">
+        <v>0.62</v>
+      </c>
+      <c r="L289">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>20</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>15</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" s="4">
+        <v>6</v>
+      </c>
+      <c r="G290" s="3">
+        <v>25</v>
+      </c>
+      <c r="H290">
+        <v>20</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>500</v>
+      </c>
+      <c r="K290">
+        <v>0.67</v>
+      </c>
+      <c r="L290">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>20</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>15</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291" s="4">
+        <v>6</v>
+      </c>
+      <c r="G291" s="3">
+        <v>25</v>
+      </c>
+      <c r="H291">
+        <v>20</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>500</v>
+      </c>
+      <c r="K291">
+        <v>0.62</v>
+      </c>
+      <c r="L291">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>20</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>15</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" s="4">
+        <v>6</v>
+      </c>
+      <c r="G292" s="3">
+        <v>25</v>
+      </c>
+      <c r="H292">
+        <v>20</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>500</v>
+      </c>
+      <c r="K292">
+        <v>0.67</v>
+      </c>
+      <c r="L292">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>20</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>15</v>
+      </c>
+      <c r="D293">
+        <v>2</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" s="4">
+        <v>6</v>
+      </c>
+      <c r="G293" s="3">
+        <v>25</v>
+      </c>
+      <c r="H293">
+        <v>20</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>500</v>
+      </c>
+      <c r="K293">
+        <v>0.71</v>
+      </c>
+      <c r="L293">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>20</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>15</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" s="4">
+        <v>6</v>
+      </c>
+      <c r="G296" s="3">
+        <v>35</v>
+      </c>
+      <c r="H296">
+        <v>20</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>500</v>
+      </c>
+      <c r="K296">
+        <v>0.62</v>
+      </c>
+      <c r="L296">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>20</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>15</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" s="4">
+        <v>6</v>
+      </c>
+      <c r="G297" s="3">
+        <v>35</v>
+      </c>
+      <c r="H297">
+        <v>20</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>500</v>
+      </c>
+      <c r="K297">
+        <v>0.67</v>
+      </c>
+      <c r="L297">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>20</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>15</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" s="4">
+        <v>6</v>
+      </c>
+      <c r="G298" s="3">
+        <v>35</v>
+      </c>
+      <c r="H298">
+        <v>20</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>500</v>
+      </c>
+      <c r="K298">
+        <v>0.67</v>
+      </c>
+      <c r="L298">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>20</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>15</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299" s="4">
+        <v>6</v>
+      </c>
+      <c r="G299" s="3">
+        <v>35</v>
+      </c>
+      <c r="H299">
+        <v>20</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>500</v>
+      </c>
+      <c r="K299">
+        <v>0.62</v>
+      </c>
+      <c r="L299">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>20</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>15</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" s="4">
+        <v>6</v>
+      </c>
+      <c r="G300" s="3">
+        <v>35</v>
+      </c>
+      <c r="H300">
+        <v>20</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>500</v>
+      </c>
+      <c r="K300">
+        <v>0.67</v>
+      </c>
+      <c r="L300">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>20</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301" s="4">
+        <v>6</v>
+      </c>
+      <c r="G301" s="3">
+        <v>35</v>
+      </c>
+      <c r="H301">
+        <v>20</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>500</v>
+      </c>
+      <c r="K301">
+        <v>0.67</v>
+      </c>
+      <c r="L301">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <v>20</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>15</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302" s="4">
+        <v>6</v>
+      </c>
+      <c r="G302" s="3">
+        <v>35</v>
+      </c>
+      <c r="H302">
+        <v>20</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>500</v>
+      </c>
+      <c r="K302">
+        <v>0.62</v>
+      </c>
+      <c r="L302">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>20</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>15</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303" s="4">
+        <v>6</v>
+      </c>
+      <c r="G303" s="3">
+        <v>35</v>
+      </c>
+      <c r="H303">
+        <v>20</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>500</v>
+      </c>
+      <c r="K303">
+        <v>0.67</v>
+      </c>
+      <c r="L303">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <v>20</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>15</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304" s="4">
+        <v>6</v>
+      </c>
+      <c r="G304" s="3">
+        <v>35</v>
+      </c>
+      <c r="H304">
+        <v>20</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>500</v>
+      </c>
+      <c r="K304">
+        <v>0.62</v>
+      </c>
+      <c r="L304">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <v>20</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>15</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305" s="4">
+        <v>6</v>
+      </c>
+      <c r="G305" s="3">
+        <v>35</v>
+      </c>
+      <c r="H305">
+        <v>20</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>500</v>
+      </c>
+      <c r="K305">
+        <v>0.62</v>
+      </c>
+      <c r="L305">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>20</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>15</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308" s="4">
+        <v>6</v>
+      </c>
+      <c r="G308" s="4">
+        <v>10</v>
+      </c>
+      <c r="H308" s="3">
+        <v>10</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>500</v>
+      </c>
+      <c r="K308">
+        <v>0.62</v>
+      </c>
+      <c r="L308">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>20</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>15</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" s="4">
+        <v>6</v>
+      </c>
+      <c r="G309" s="4">
+        <v>10</v>
+      </c>
+      <c r="H309" s="3">
+        <v>10</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>500</v>
+      </c>
+      <c r="K309">
+        <v>0.67</v>
+      </c>
+      <c r="L309">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <v>20</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>15</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" s="4">
+        <v>6</v>
+      </c>
+      <c r="G310" s="4">
+        <v>10</v>
+      </c>
+      <c r="H310" s="3">
+        <v>10</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>500</v>
+      </c>
+      <c r="K310">
+        <v>0.71</v>
+      </c>
+      <c r="L310">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>20</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>15</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311" s="4">
+        <v>6</v>
+      </c>
+      <c r="G311" s="4">
+        <v>10</v>
+      </c>
+      <c r="H311" s="3">
+        <v>10</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>500</v>
+      </c>
+      <c r="K311">
+        <v>0.67</v>
+      </c>
+      <c r="L311">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <v>20</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>15</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312" s="4">
+        <v>6</v>
+      </c>
+      <c r="G312" s="4">
+        <v>10</v>
+      </c>
+      <c r="H312" s="3">
+        <v>10</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>500</v>
+      </c>
+      <c r="K312">
+        <v>0.71</v>
+      </c>
+      <c r="L312">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <v>20</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>15</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313" s="4">
+        <v>6</v>
+      </c>
+      <c r="G313" s="4">
+        <v>10</v>
+      </c>
+      <c r="H313" s="3">
+        <v>10</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>500</v>
+      </c>
+      <c r="K313">
+        <v>0.67</v>
+      </c>
+      <c r="L313">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
+        <v>20</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>15</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" s="4">
+        <v>6</v>
+      </c>
+      <c r="G314" s="4">
+        <v>10</v>
+      </c>
+      <c r="H314" s="3">
+        <v>10</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>500</v>
+      </c>
+      <c r="K314">
+        <v>0.71</v>
+      </c>
+      <c r="L314">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>20</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>15</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315" s="4">
+        <v>6</v>
+      </c>
+      <c r="G315" s="4">
+        <v>10</v>
+      </c>
+      <c r="H315" s="3">
+        <v>10</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>500</v>
+      </c>
+      <c r="K315">
+        <v>0.67</v>
+      </c>
+      <c r="L315">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <v>20</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>15</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316" s="4">
+        <v>6</v>
+      </c>
+      <c r="G316" s="4">
+        <v>10</v>
+      </c>
+      <c r="H316" s="3">
+        <v>10</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+      <c r="J316">
+        <v>500</v>
+      </c>
+      <c r="K316">
+        <v>0.67</v>
+      </c>
+      <c r="L316">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>20</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>15</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317" s="4">
+        <v>6</v>
+      </c>
+      <c r="G317" s="4">
+        <v>10</v>
+      </c>
+      <c r="H317" s="3">
+        <v>10</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>500</v>
+      </c>
+      <c r="K317">
+        <v>0.62</v>
+      </c>
+      <c r="L317">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <v>20</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>15</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320" s="4">
+        <v>6</v>
+      </c>
+      <c r="G320" s="4">
+        <v>10</v>
+      </c>
+      <c r="H320" s="3">
+        <v>20</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>500</v>
+      </c>
+      <c r="K320">
+        <v>0.71</v>
+      </c>
+      <c r="L320">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>20</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>15</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321" s="4">
+        <v>6</v>
+      </c>
+      <c r="G321" s="4">
+        <v>10</v>
+      </c>
+      <c r="H321" s="3">
+        <v>20</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>500</v>
+      </c>
+      <c r="K321">
+        <v>0.71</v>
+      </c>
+      <c r="L321">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>20</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>15</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322" s="4">
+        <v>6</v>
+      </c>
+      <c r="G322" s="4">
+        <v>10</v>
+      </c>
+      <c r="H322" s="3">
+        <v>20</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>500</v>
+      </c>
+      <c r="K322">
+        <v>0.67</v>
+      </c>
+      <c r="L322">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>20</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>15</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323" s="4">
+        <v>6</v>
+      </c>
+      <c r="G323" s="4">
+        <v>10</v>
+      </c>
+      <c r="H323" s="3">
+        <v>20</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>500</v>
+      </c>
+      <c r="K323">
+        <v>0.67</v>
+      </c>
+      <c r="L323">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
+        <v>20</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>15</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324" s="4">
+        <v>6</v>
+      </c>
+      <c r="G324" s="4">
+        <v>10</v>
+      </c>
+      <c r="H324" s="3">
+        <v>20</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>500</v>
+      </c>
+      <c r="K324">
+        <v>0.71</v>
+      </c>
+      <c r="L324">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>20</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>15</v>
+      </c>
+      <c r="D325">
+        <v>2</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325" s="4">
+        <v>6</v>
+      </c>
+      <c r="G325" s="4">
+        <v>10</v>
+      </c>
+      <c r="H325" s="3">
+        <v>20</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>500</v>
+      </c>
+      <c r="K325">
+        <v>0.85</v>
+      </c>
+      <c r="L325">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <v>20</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>15</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326" s="4">
+        <v>6</v>
+      </c>
+      <c r="G326" s="4">
+        <v>10</v>
+      </c>
+      <c r="H326" s="3">
+        <v>20</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>500</v>
+      </c>
+      <c r="K326">
+        <v>0.71</v>
+      </c>
+      <c r="L326">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>20</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>15</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327" s="4">
+        <v>6</v>
+      </c>
+      <c r="G327" s="4">
+        <v>10</v>
+      </c>
+      <c r="H327" s="3">
+        <v>20</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>500</v>
+      </c>
+      <c r="K327">
+        <v>0.67</v>
+      </c>
+      <c r="L327">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>20</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>15</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328" s="4">
+        <v>6</v>
+      </c>
+      <c r="G328" s="4">
+        <v>10</v>
+      </c>
+      <c r="H328" s="3">
+        <v>20</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>500</v>
+      </c>
+      <c r="K328">
+        <v>0.9</v>
+      </c>
+      <c r="L328">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>20</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>15</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329" s="4">
+        <v>6</v>
+      </c>
+      <c r="G329" s="4">
+        <v>10</v>
+      </c>
+      <c r="H329" s="3">
+        <v>20</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>500</v>
+      </c>
+      <c r="K329">
+        <v>0.81</v>
+      </c>
+      <c r="L329">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>20</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>15</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332" s="4">
+        <v>6</v>
+      </c>
+      <c r="G332" s="4">
+        <v>10</v>
+      </c>
+      <c r="H332" s="3">
+        <v>30</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>20</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>15</v>
+      </c>
+      <c r="D333">
+        <v>2</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333" s="4">
+        <v>6</v>
+      </c>
+      <c r="G333" s="4">
+        <v>10</v>
+      </c>
+      <c r="H333" s="3">
+        <v>30</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <v>20</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>15</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334" s="4">
+        <v>6</v>
+      </c>
+      <c r="G334" s="4">
+        <v>10</v>
+      </c>
+      <c r="H334" s="3">
+        <v>30</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>20</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>15</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335" s="4">
+        <v>6</v>
+      </c>
+      <c r="G335" s="4">
+        <v>10</v>
+      </c>
+      <c r="H335" s="3">
+        <v>30</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <v>20</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>15</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336" s="4">
+        <v>6</v>
+      </c>
+      <c r="G336" s="4">
+        <v>10</v>
+      </c>
+      <c r="H336" s="3">
+        <v>30</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>20</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>15</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337" s="4">
+        <v>6</v>
+      </c>
+      <c r="G337" s="4">
+        <v>10</v>
+      </c>
+      <c r="H337" s="3">
+        <v>30</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <v>20</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>15</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338" s="4">
+        <v>6</v>
+      </c>
+      <c r="G338" s="4">
+        <v>10</v>
+      </c>
+      <c r="H338" s="3">
+        <v>30</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>20</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>15</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339" s="4">
+        <v>6</v>
+      </c>
+      <c r="G339" s="4">
+        <v>10</v>
+      </c>
+      <c r="H339" s="3">
+        <v>30</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <v>20</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>15</v>
+      </c>
+      <c r="D340">
+        <v>2</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340" s="4">
+        <v>6</v>
+      </c>
+      <c r="G340" s="4">
+        <v>10</v>
+      </c>
+      <c r="H340" s="3">
+        <v>30</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>20</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>15</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341" s="4">
+        <v>6</v>
+      </c>
+      <c r="G341" s="4">
+        <v>10</v>
+      </c>
+      <c r="H341" s="3">
+        <v>30</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Mgr\1 semestr\Zaawansowane programowanie\Projekt\PDP App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014464D-F4EC-4AEA-982F-D6BD92C12C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366891A3-0469-4F7D-9769-CF46307DD367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{134B9FED-D28E-46E9-89FE-F1A985593F2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{134B9FED-D28E-46E9-89FE-F1A985593F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wyniki" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B263505-5328-4F8C-A1D0-B6A4CF386B5A}">
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H345" sqref="H345"/>
     </sheetView>
   </sheetViews>
@@ -11486,7 +11486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9497C8EC-19CA-4596-B9FF-C18A102E14D3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
       <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>

--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Mgr\1 semestr\Zaawansowane programowanie\Projekt\PDP App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DCDB3-C0CB-498E-977D-FF91C2CE4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E32FC7-0A47-4525-BC53-273785B1EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{134B9FED-D28E-46E9-89FE-F1A985593F2E}"/>
   </bookViews>
@@ -17544,10 +17544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B263505-5328-4F8C-A1D0-B6A4CF386B5A}">
-  <dimension ref="A1:L490"/>
+  <dimension ref="A1:L503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K456" sqref="K456:L465"/>
+    <sheetView tabSelected="1" topLeftCell="A465" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L493" sqref="L493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32042,10 +32042,10 @@
       <c r="C456">
         <v>75</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="3">
         <v>0</v>
       </c>
-      <c r="E456">
+      <c r="E456" s="3">
         <v>0</v>
       </c>
       <c r="F456" s="4">
@@ -32080,10 +32080,10 @@
       <c r="C457">
         <v>75</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="3">
         <v>0</v>
       </c>
-      <c r="E457">
+      <c r="E457" s="3">
         <v>0</v>
       </c>
       <c r="F457" s="4">
@@ -32118,10 +32118,10 @@
       <c r="C458">
         <v>75</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="3">
         <v>0</v>
       </c>
-      <c r="E458">
+      <c r="E458" s="3">
         <v>0</v>
       </c>
       <c r="F458" s="4">
@@ -32156,10 +32156,10 @@
       <c r="C459">
         <v>75</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="3">
         <v>0</v>
       </c>
-      <c r="E459">
+      <c r="E459" s="3">
         <v>0</v>
       </c>
       <c r="F459" s="4">
@@ -32194,10 +32194,10 @@
       <c r="C460">
         <v>75</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="3">
         <v>0</v>
       </c>
-      <c r="E460">
+      <c r="E460" s="3">
         <v>0</v>
       </c>
       <c r="F460" s="4">
@@ -32232,10 +32232,10 @@
       <c r="C461">
         <v>75</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="3">
         <v>0</v>
       </c>
-      <c r="E461">
+      <c r="E461" s="3">
         <v>0</v>
       </c>
       <c r="F461" s="4">
@@ -32270,10 +32270,10 @@
       <c r="C462">
         <v>75</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="3">
         <v>0</v>
       </c>
-      <c r="E462">
+      <c r="E462" s="3">
         <v>0</v>
       </c>
       <c r="F462" s="4">
@@ -32308,10 +32308,10 @@
       <c r="C463">
         <v>75</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="3">
         <v>0</v>
       </c>
-      <c r="E463">
+      <c r="E463" s="3">
         <v>0</v>
       </c>
       <c r="F463" s="4">
@@ -32346,10 +32346,10 @@
       <c r="C464">
         <v>75</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="3">
         <v>0</v>
       </c>
-      <c r="E464">
+      <c r="E464" s="3">
         <v>0</v>
       </c>
       <c r="F464" s="4">
@@ -32384,10 +32384,10 @@
       <c r="C465">
         <v>75</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="3">
         <v>0</v>
       </c>
-      <c r="E465">
+      <c r="E465" s="3">
         <v>0</v>
       </c>
       <c r="F465" s="4">
@@ -32410,6 +32410,16 @@
       </c>
       <c r="L465" s="4">
         <v>50646</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K466" s="3">
+        <f>AVERAGE(K456:K465)</f>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L466" s="3">
+        <f>AVERAGE(L456:L465)</f>
+        <v>58114.7</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
@@ -32422,10 +32432,10 @@
       <c r="C469">
         <v>75</v>
       </c>
-      <c r="D469">
-        <v>5</v>
-      </c>
-      <c r="E469">
+      <c r="D469" s="3">
+        <v>3</v>
+      </c>
+      <c r="E469" s="3">
         <v>0</v>
       </c>
       <c r="F469" s="4">
@@ -32442,6 +32452,12 @@
       </c>
       <c r="J469" s="4">
         <v>1500</v>
+      </c>
+      <c r="K469" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="L469" s="4">
+        <v>47317</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
@@ -32454,10 +32470,10 @@
       <c r="C470">
         <v>75</v>
       </c>
-      <c r="D470">
-        <v>5</v>
-      </c>
-      <c r="E470">
+      <c r="D470" s="3">
+        <v>3</v>
+      </c>
+      <c r="E470" s="3">
         <v>0</v>
       </c>
       <c r="F470" s="4">
@@ -32474,6 +32490,12 @@
       </c>
       <c r="J470" s="4">
         <v>1500</v>
+      </c>
+      <c r="K470" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="L470" s="4">
+        <v>49370</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
@@ -32486,10 +32508,10 @@
       <c r="C471">
         <v>75</v>
       </c>
-      <c r="D471">
-        <v>5</v>
-      </c>
-      <c r="E471">
+      <c r="D471" s="3">
+        <v>3</v>
+      </c>
+      <c r="E471" s="3">
         <v>0</v>
       </c>
       <c r="F471" s="4">
@@ -32506,6 +32528,12 @@
       </c>
       <c r="J471" s="4">
         <v>1500</v>
+      </c>
+      <c r="K471" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L471" s="4">
+        <v>55854</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
@@ -32518,10 +32546,10 @@
       <c r="C472">
         <v>75</v>
       </c>
-      <c r="D472">
-        <v>5</v>
-      </c>
-      <c r="E472">
+      <c r="D472" s="3">
+        <v>3</v>
+      </c>
+      <c r="E472" s="3">
         <v>0</v>
       </c>
       <c r="F472" s="4">
@@ -32538,6 +32566,12 @@
       </c>
       <c r="J472" s="4">
         <v>1500</v>
+      </c>
+      <c r="K472" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="L472" s="4">
+        <v>53681</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
@@ -32550,10 +32584,10 @@
       <c r="C473">
         <v>75</v>
       </c>
-      <c r="D473">
-        <v>5</v>
-      </c>
-      <c r="E473">
+      <c r="D473" s="3">
+        <v>3</v>
+      </c>
+      <c r="E473" s="3">
         <v>0</v>
       </c>
       <c r="F473" s="4">
@@ -32570,6 +32604,12 @@
       </c>
       <c r="J473" s="4">
         <v>1500</v>
+      </c>
+      <c r="K473" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="L473" s="4">
+        <v>47369</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
@@ -32582,10 +32622,10 @@
       <c r="C474">
         <v>75</v>
       </c>
-      <c r="D474">
-        <v>5</v>
-      </c>
-      <c r="E474">
+      <c r="D474" s="3">
+        <v>3</v>
+      </c>
+      <c r="E474" s="3">
         <v>0</v>
       </c>
       <c r="F474" s="4">
@@ -32602,6 +32642,12 @@
       </c>
       <c r="J474" s="4">
         <v>1500</v>
+      </c>
+      <c r="K474" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L474" s="4">
+        <v>56132</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
@@ -32614,10 +32660,10 @@
       <c r="C475">
         <v>75</v>
       </c>
-      <c r="D475">
-        <v>5</v>
-      </c>
-      <c r="E475">
+      <c r="D475" s="3">
+        <v>3</v>
+      </c>
+      <c r="E475" s="3">
         <v>0</v>
       </c>
       <c r="F475" s="4">
@@ -32634,6 +32680,12 @@
       </c>
       <c r="J475" s="4">
         <v>1500</v>
+      </c>
+      <c r="K475" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="L475" s="4">
+        <v>48140</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
@@ -32646,10 +32698,10 @@
       <c r="C476">
         <v>75</v>
       </c>
-      <c r="D476">
-        <v>5</v>
-      </c>
-      <c r="E476">
+      <c r="D476" s="3">
+        <v>3</v>
+      </c>
+      <c r="E476" s="3">
         <v>0</v>
       </c>
       <c r="F476" s="4">
@@ -32666,6 +32718,12 @@
       </c>
       <c r="J476" s="4">
         <v>1500</v>
+      </c>
+      <c r="K476" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L476" s="4">
+        <v>57956</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
@@ -32678,10 +32736,10 @@
       <c r="C477">
         <v>75</v>
       </c>
-      <c r="D477">
-        <v>5</v>
-      </c>
-      <c r="E477">
+      <c r="D477" s="3">
+        <v>3</v>
+      </c>
+      <c r="E477" s="3">
         <v>0</v>
       </c>
       <c r="F477" s="4">
@@ -32698,6 +32756,12 @@
       </c>
       <c r="J477" s="4">
         <v>1500</v>
+      </c>
+      <c r="K477" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L477" s="4">
+        <v>55892</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
@@ -32710,10 +32774,10 @@
       <c r="C478">
         <v>75</v>
       </c>
-      <c r="D478">
-        <v>5</v>
-      </c>
-      <c r="E478">
+      <c r="D478" s="3">
+        <v>3</v>
+      </c>
+      <c r="E478" s="3">
         <v>0</v>
       </c>
       <c r="F478" s="4">
@@ -32731,8 +32795,24 @@
       <c r="J478" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K478" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="L478" s="4">
+        <v>57348</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K479" s="3">
+        <f>AVERAGE(K469:K478)</f>
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="L479" s="3">
+        <f>AVERAGE(L469:L478)</f>
+        <v>52905.9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>60</v>
       </c>
@@ -32742,11 +32822,11 @@
       <c r="C481">
         <v>75</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="3">
         <v>0</v>
       </c>
-      <c r="E481">
-        <v>5</v>
+      <c r="E481" s="3">
+        <v>3</v>
       </c>
       <c r="F481" s="4">
         <v>150</v>
@@ -32763,8 +32843,14 @@
       <c r="J481" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K481" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="L481" s="4">
+        <v>46572</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>60</v>
       </c>
@@ -32774,11 +32860,11 @@
       <c r="C482">
         <v>75</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="3">
         <v>0</v>
       </c>
-      <c r="E482">
-        <v>5</v>
+      <c r="E482" s="3">
+        <v>3</v>
       </c>
       <c r="F482" s="4">
         <v>150</v>
@@ -32795,8 +32881,14 @@
       <c r="J482" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K482" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="L482" s="4">
+        <v>48509</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>60</v>
       </c>
@@ -32806,11 +32898,11 @@
       <c r="C483">
         <v>75</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="3">
         <v>0</v>
       </c>
-      <c r="E483">
-        <v>5</v>
+      <c r="E483" s="3">
+        <v>3</v>
       </c>
       <c r="F483" s="4">
         <v>150</v>
@@ -32827,8 +32919,14 @@
       <c r="J483" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K483" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L483" s="4">
+        <v>51537</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>60</v>
       </c>
@@ -32838,11 +32936,11 @@
       <c r="C484">
         <v>75</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="3">
         <v>0</v>
       </c>
-      <c r="E484">
-        <v>5</v>
+      <c r="E484" s="3">
+        <v>3</v>
       </c>
       <c r="F484" s="4">
         <v>150</v>
@@ -32859,8 +32957,14 @@
       <c r="J484" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K484" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="L484" s="4">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>60</v>
       </c>
@@ -32870,11 +32974,11 @@
       <c r="C485">
         <v>75</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="3">
         <v>0</v>
       </c>
-      <c r="E485">
-        <v>5</v>
+      <c r="E485" s="3">
+        <v>3</v>
       </c>
       <c r="F485" s="4">
         <v>150</v>
@@ -32891,8 +32995,14 @@
       <c r="J485" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K485" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="L485" s="4">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>60</v>
       </c>
@@ -32902,11 +33012,11 @@
       <c r="C486">
         <v>75</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="3">
         <v>0</v>
       </c>
-      <c r="E486">
-        <v>5</v>
+      <c r="E486" s="3">
+        <v>3</v>
       </c>
       <c r="F486" s="4">
         <v>150</v>
@@ -32923,8 +33033,14 @@
       <c r="J486" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K486" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="L486" s="4">
+        <v>48926</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>60</v>
       </c>
@@ -32934,11 +33050,11 @@
       <c r="C487">
         <v>75</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="3">
         <v>0</v>
       </c>
-      <c r="E487">
-        <v>5</v>
+      <c r="E487" s="3">
+        <v>3</v>
       </c>
       <c r="F487" s="4">
         <v>150</v>
@@ -32955,8 +33071,14 @@
       <c r="J487" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K487" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L487" s="4">
+        <v>64980</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>60</v>
       </c>
@@ -32966,11 +33088,11 @@
       <c r="C488">
         <v>75</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="3">
         <v>0</v>
       </c>
-      <c r="E488">
-        <v>5</v>
+      <c r="E488" s="3">
+        <v>3</v>
       </c>
       <c r="F488" s="4">
         <v>150</v>
@@ -32987,8 +33109,14 @@
       <c r="J488" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K488" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="L488" s="4">
+        <v>56709</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>60</v>
       </c>
@@ -32998,11 +33126,11 @@
       <c r="C489">
         <v>75</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="3">
         <v>0</v>
       </c>
-      <c r="E489">
-        <v>5</v>
+      <c r="E489" s="3">
+        <v>3</v>
       </c>
       <c r="F489" s="4">
         <v>150</v>
@@ -33019,8 +33147,14 @@
       <c r="J489" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K489" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="L489" s="4">
+        <v>51341</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>60</v>
       </c>
@@ -33030,11 +33164,11 @@
       <c r="C490">
         <v>75</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="3">
         <v>0</v>
       </c>
-      <c r="E490">
-        <v>5</v>
+      <c r="E490" s="3">
+        <v>3</v>
       </c>
       <c r="F490" s="4">
         <v>150</v>
@@ -33049,6 +33183,342 @@
         <v>1</v>
       </c>
       <c r="J490" s="4">
+        <v>1500</v>
+      </c>
+      <c r="K490" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L490" s="4">
+        <v>47853</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K491" s="3">
+        <f>AVERAGE(K481:K490)</f>
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="L491" s="3">
+        <f>AVERAGE(L481:L490)</f>
+        <v>50530.7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A494" s="4">
+        <v>60</v>
+      </c>
+      <c r="B494">
+        <v>3</v>
+      </c>
+      <c r="C494">
+        <v>75</v>
+      </c>
+      <c r="D494" s="3">
+        <v>3</v>
+      </c>
+      <c r="E494" s="3">
+        <v>3</v>
+      </c>
+      <c r="F494" s="4">
+        <v>150</v>
+      </c>
+      <c r="G494">
+        <v>15</v>
+      </c>
+      <c r="H494">
+        <v>40</v>
+      </c>
+      <c r="I494" s="4">
+        <v>2</v>
+      </c>
+      <c r="J494" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A495" s="4">
+        <v>60</v>
+      </c>
+      <c r="B495">
+        <v>3</v>
+      </c>
+      <c r="C495">
+        <v>75</v>
+      </c>
+      <c r="D495" s="3">
+        <v>3</v>
+      </c>
+      <c r="E495" s="3">
+        <v>3</v>
+      </c>
+      <c r="F495" s="4">
+        <v>150</v>
+      </c>
+      <c r="G495">
+        <v>15</v>
+      </c>
+      <c r="H495">
+        <v>40</v>
+      </c>
+      <c r="I495" s="4">
+        <v>2</v>
+      </c>
+      <c r="J495" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A496" s="4">
+        <v>60</v>
+      </c>
+      <c r="B496">
+        <v>3</v>
+      </c>
+      <c r="C496">
+        <v>75</v>
+      </c>
+      <c r="D496" s="3">
+        <v>3</v>
+      </c>
+      <c r="E496" s="3">
+        <v>3</v>
+      </c>
+      <c r="F496" s="4">
+        <v>150</v>
+      </c>
+      <c r="G496">
+        <v>15</v>
+      </c>
+      <c r="H496">
+        <v>40</v>
+      </c>
+      <c r="I496" s="4">
+        <v>2</v>
+      </c>
+      <c r="J496" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="4">
+        <v>60</v>
+      </c>
+      <c r="B497">
+        <v>3</v>
+      </c>
+      <c r="C497">
+        <v>75</v>
+      </c>
+      <c r="D497" s="3">
+        <v>3</v>
+      </c>
+      <c r="E497" s="3">
+        <v>3</v>
+      </c>
+      <c r="F497" s="4">
+        <v>150</v>
+      </c>
+      <c r="G497">
+        <v>15</v>
+      </c>
+      <c r="H497">
+        <v>40</v>
+      </c>
+      <c r="I497" s="4">
+        <v>2</v>
+      </c>
+      <c r="J497" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="4">
+        <v>60</v>
+      </c>
+      <c r="B498">
+        <v>3</v>
+      </c>
+      <c r="C498">
+        <v>75</v>
+      </c>
+      <c r="D498" s="3">
+        <v>3</v>
+      </c>
+      <c r="E498" s="3">
+        <v>3</v>
+      </c>
+      <c r="F498" s="4">
+        <v>150</v>
+      </c>
+      <c r="G498">
+        <v>15</v>
+      </c>
+      <c r="H498">
+        <v>40</v>
+      </c>
+      <c r="I498" s="4">
+        <v>2</v>
+      </c>
+      <c r="J498" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="4">
+        <v>60</v>
+      </c>
+      <c r="B499">
+        <v>3</v>
+      </c>
+      <c r="C499">
+        <v>75</v>
+      </c>
+      <c r="D499" s="3">
+        <v>3</v>
+      </c>
+      <c r="E499" s="3">
+        <v>3</v>
+      </c>
+      <c r="F499" s="4">
+        <v>150</v>
+      </c>
+      <c r="G499">
+        <v>15</v>
+      </c>
+      <c r="H499">
+        <v>40</v>
+      </c>
+      <c r="I499" s="4">
+        <v>2</v>
+      </c>
+      <c r="J499" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="4">
+        <v>60</v>
+      </c>
+      <c r="B500">
+        <v>3</v>
+      </c>
+      <c r="C500">
+        <v>75</v>
+      </c>
+      <c r="D500" s="3">
+        <v>3</v>
+      </c>
+      <c r="E500" s="3">
+        <v>3</v>
+      </c>
+      <c r="F500" s="4">
+        <v>150</v>
+      </c>
+      <c r="G500">
+        <v>15</v>
+      </c>
+      <c r="H500">
+        <v>40</v>
+      </c>
+      <c r="I500" s="4">
+        <v>2</v>
+      </c>
+      <c r="J500" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" s="4">
+        <v>60</v>
+      </c>
+      <c r="B501">
+        <v>3</v>
+      </c>
+      <c r="C501">
+        <v>75</v>
+      </c>
+      <c r="D501" s="3">
+        <v>3</v>
+      </c>
+      <c r="E501" s="3">
+        <v>3</v>
+      </c>
+      <c r="F501" s="4">
+        <v>150</v>
+      </c>
+      <c r="G501">
+        <v>15</v>
+      </c>
+      <c r="H501">
+        <v>40</v>
+      </c>
+      <c r="I501" s="4">
+        <v>2</v>
+      </c>
+      <c r="J501" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" s="4">
+        <v>60</v>
+      </c>
+      <c r="B502">
+        <v>3</v>
+      </c>
+      <c r="C502">
+        <v>75</v>
+      </c>
+      <c r="D502" s="3">
+        <v>3</v>
+      </c>
+      <c r="E502" s="3">
+        <v>3</v>
+      </c>
+      <c r="F502" s="4">
+        <v>150</v>
+      </c>
+      <c r="G502">
+        <v>15</v>
+      </c>
+      <c r="H502">
+        <v>40</v>
+      </c>
+      <c r="I502" s="4">
+        <v>2</v>
+      </c>
+      <c r="J502" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" s="4">
+        <v>60</v>
+      </c>
+      <c r="B503">
+        <v>3</v>
+      </c>
+      <c r="C503">
+        <v>75</v>
+      </c>
+      <c r="D503" s="3">
+        <v>3</v>
+      </c>
+      <c r="E503" s="3">
+        <v>3</v>
+      </c>
+      <c r="F503" s="4">
+        <v>150</v>
+      </c>
+      <c r="G503">
+        <v>15</v>
+      </c>
+      <c r="H503">
+        <v>40</v>
+      </c>
+      <c r="I503" s="4">
+        <v>1</v>
+      </c>
+      <c r="J503" s="4">
         <v>1500</v>
       </c>
     </row>

--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Mgr\1 semestr\Zaawansowane programowanie\Projekt\PDP App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E32FC7-0A47-4525-BC53-273785B1EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8C905-B1CF-4110-B8E7-730C8018D8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{134B9FED-D28E-46E9-89FE-F1A985593F2E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{134B9FED-D28E-46E9-89FE-F1A985593F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Wyniki" sheetId="1" r:id="rId1"/>
@@ -17544,10 +17544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B263505-5328-4F8C-A1D0-B6A4CF386B5A}">
-  <dimension ref="A1:L503"/>
+  <dimension ref="A1:L504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L493" sqref="L493"/>
+    <sheetView topLeftCell="B480" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E479" sqref="E479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22342,7 +22342,7 @@
         <v>500</v>
       </c>
       <c r="K148">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="L148">
         <v>953</v>
@@ -22380,7 +22380,7 @@
         <v>500</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="L149">
         <v>767</v>
@@ -22516,7 +22516,7 @@
         <v>15</v>
       </c>
       <c r="D154" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
@@ -22554,7 +22554,7 @@
         <v>15</v>
       </c>
       <c r="D155" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>15</v>
       </c>
       <c r="D156" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
@@ -22630,7 +22630,7 @@
         <v>15</v>
       </c>
       <c r="D157" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
@@ -22668,7 +22668,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
@@ -23335,7 +23335,7 @@
         <v>500</v>
       </c>
       <c r="K179">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="L179">
         <v>767</v>
@@ -33233,6 +33233,12 @@
       <c r="J494" s="4">
         <v>1500</v>
       </c>
+      <c r="K494" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="L494" s="4">
+        <v>53487</v>
+      </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
@@ -33265,6 +33271,12 @@
       <c r="J495" s="4">
         <v>1500</v>
       </c>
+      <c r="K495" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="L495" s="4">
+        <v>46781</v>
+      </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
@@ -33297,8 +33309,14 @@
       <c r="J496" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K496" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L496" s="4">
+        <v>64387</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>60</v>
       </c>
@@ -33329,8 +33347,14 @@
       <c r="J497" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K497" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L497" s="4">
+        <v>54656</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>60</v>
       </c>
@@ -33361,8 +33385,14 @@
       <c r="J498" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K498" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="L498" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>60</v>
       </c>
@@ -33393,8 +33423,14 @@
       <c r="J499" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K499" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="L499" s="4">
+        <v>53295</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>60</v>
       </c>
@@ -33425,8 +33461,14 @@
       <c r="J500" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K500" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="L500" s="4">
+        <v>51142</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>60</v>
       </c>
@@ -33457,8 +33499,14 @@
       <c r="J501" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K501" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="L501" s="4">
+        <v>48612</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>60</v>
       </c>
@@ -33489,8 +33537,14 @@
       <c r="J502" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K502" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L502" s="4">
+        <v>68144</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>60</v>
       </c>
@@ -33520,6 +33574,22 @@
       </c>
       <c r="J503" s="4">
         <v>1500</v>
+      </c>
+      <c r="K503" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="L503" s="4">
+        <v>46785</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K504" s="3">
+        <f>AVERAGE(K494:K503)</f>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L504" s="3">
+        <f>AVERAGE(L494:L503)</f>
+        <v>53004.7</v>
       </c>
     </row>
   </sheetData>
@@ -33532,7 +33602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07054A6E-7D45-4693-B10B-ED33C9969908}">
   <dimension ref="E24:S106"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -33574,7 +33644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9497C8EC-19CA-4596-B9FF-C18A102E14D3}">
   <dimension ref="D66:Q112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
